--- a/biology/Zoologie/Himalayana/Himalayana.xlsx
+++ b/biology/Zoologie/Himalayana/Himalayana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Himalayana est un genre d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Himalayana est un genre d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Népal et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Népal et en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 15.0, 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 15.0, 2014) :
 Himalayana andreae Grismado, 2014
 Himalayana castanopsis Grismado, 2014
 Himalayana kathmandu Grismado, 2014
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grismado, Deeleman-Reinhold, Piacentini, Izquierdo &amp; Ramírez, 2014 : Taxonomic review of the goblin spiders of the genus Dysderoides Fage and their Himalayan relatives of the genera Trilacuna Tong and Li and Himalayana, new genus (Araneae, Oonopidae). Bulletin of the American Museum of Natural History, no 387, p. 1-108 (texte intégral).</t>
         </is>
